--- a/en/application_framework/application_framework/libraries/images/data_format/images.xlsx
+++ b/en/application_framework/application_framework/libraries/images/data_format/images.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B5CBA4-CA61-41BA-955B-E5B8FC571EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汎用データフォーマット" sheetId="2" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +69,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -89,7 +93,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート : 磁気ディスク 1"/>
+        <xdr:cNvPr id="2" name="フローチャート : 磁気ディスク 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -129,16 +139,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>LOB</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -159,7 +166,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート : 書類 3"/>
+        <xdr:cNvPr id="4" name="フローチャート : 書類 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -199,14 +212,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>File</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -227,7 +238,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="右中かっこ 5"/>
+        <xdr:cNvPr id="6" name="右中かっこ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -266,7 +283,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -287,7 +307,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -319,10 +345,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>汎用データフォーマット</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>General Data Format</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -344,7 +372,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="メモ 7"/>
+        <xdr:cNvPr id="8" name="メモ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -376,10 +410,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>フォーマット定義ファイル</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Format definition file</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -401,7 +437,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -439,137 +481,115 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+            <a:rPr lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>file-type    : </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>file-type    : "Fixed"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"Fixed"</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>text-encoding: "ms932"</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+            <a:rPr lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>text-encoding: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>record-length: 120</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"ms932"</a:t>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>[Default]</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>record-length: 120</a:t>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1 name    N(50)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>[Default]</a:t>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2 postNo  X(7)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>1 name    N(50)</a:t>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>3 address N(50)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>2 postNo  X(7)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>3 address N(50)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>4 ?filler X(13)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -590,7 +610,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="上矢印 10"/>
+        <xdr:cNvPr id="11" name="上矢印 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -621,7 +647,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -642,7 +671,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -682,10 +717,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>電文</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Message</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -707,7 +744,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13"/>
+        <xdr:cNvPr id="14" name="角丸四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -739,18 +782,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr kumimoji="1" lang="en-US" sz="900" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Map</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>オブジェクト</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Map object</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -772,7 +809,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -810,11 +853,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>{</a:t>
           </a:r>
@@ -822,92 +866,51 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  name: "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>  name: "Name",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>名前</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>  postNo: "1231234",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="700" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>",</a:t>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>  address: "Address"</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  postNo: "1231234",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  address: "</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>住所</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -928,7 +931,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -980,7 +989,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1033,7 +1048,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1068,16 +1089,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="75000"/>
                   <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>入力ストリーム</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Input stream</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1099,7 +1122,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1134,16 +1163,18 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" sz="800" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="75000"/>
                   <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>出力ストリーム</a:t>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Output stream</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1154,7 +1185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1196,7 +1227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1229,9 +1260,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1264,6 +1312,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1439,14 +1504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
